--- a/data/scheduling_DNN/predict/0.9/result9.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result9.xlsx
@@ -570,10 +570,10 @@
         <v>0.872236967086792</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.8781753778457642</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1668018102645874</v>
+        <v>3.526472210069187e-05</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8692641258239746</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5262824296951294</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1325987428426743</v>
+        <v>0.1176364421844482</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9539790153503418</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8705282807350159</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01435037702322006</v>
+        <v>0.006964025087654591</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9009449481964111</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8679246306419373</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1566930264234543</v>
+        <v>0.00109034136403352</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.898871898651123</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.8702386021614075</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06086791306734085</v>
+        <v>0.0008198656723834574</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8694899082183838</v>
       </c>
       <c r="V7" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5228224396705627</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04665451496839523</v>
+        <v>0.120178334414959</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9393069744110107</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.8850268125534058</v>
       </c>
       <c r="W8" t="n">
-        <v>0.124061107635498</v>
+        <v>0.00294633605517447</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8790168762207031</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.5184975266456604</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2573319673538208</v>
+        <v>0.1299742013216019</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8885660171508789</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.3999532759189606</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2678596079349518</v>
+        <v>0.2387424111366272</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8762068748474121</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.5280941128730774</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0496508963406086</v>
+        <v>0.12118249386549</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8978400230407715</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8667478561401367</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2692931294441223</v>
+        <v>0.0009667228441685438</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8726530075073242</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.8663833737373352</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04808095097541809</v>
+        <v>3.930830644094385e-05</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8696630001068115</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8681718707084656</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08606739342212677</v>
+        <v>2.223466935902252e-06</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9077839851379395</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.5214667320251465</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3144376873970032</v>
+        <v>0.1492410153150558</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8763811588287354</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.4025414288043976</v>
       </c>
       <c r="W16" t="n">
-        <v>0.09009179472923279</v>
+        <v>0.2245240956544876</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8759372234344482</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.8815610408782959</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08983699977397919</v>
+        <v>3.162732173223048e-05</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8774631023406982</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.3999700844287872</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1733332574367523</v>
+        <v>0.2279995828866959</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8578250408172607</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.8876210451126099</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04144033417105675</v>
+        <v>0.0008878018707036972</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8745810985565186</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.5334793925285339</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1220876350998878</v>
+        <v>0.1163503751158714</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8755600452423096</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.5209118127822876</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01000387966632843</v>
+        <v>0.1257753670215607</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5236871242523193</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.3990163505077362</v>
       </c>
       <c r="W22" t="n">
-        <v>0.00039759959327057</v>
+        <v>0.01554280146956444</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5238211154937744</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.88368821144104</v>
       </c>
       <c r="W23" t="n">
-        <v>0.003890656633302569</v>
+        <v>0.1295043230056763</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.590008020401001</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.8675693869590759</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01192810293287039</v>
+        <v>0.07704031467437744</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.522691011428833</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.4025420844554901</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0003383170696906745</v>
+        <v>0.01443576440215111</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5292730331420898</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.515385627746582</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03187186643481255</v>
+        <v>0.0001928600249812007</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5154130458831787</v>
       </c>
       <c r="V27" t="n">
-        <v>0.371780127286911</v>
+        <v>0.5209401249885559</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02063041552901268</v>
+        <v>3.054860280826688e-05</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5139799118041992</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.3990233838558197</v>
       </c>
       <c r="W28" t="n">
-        <v>0.09964778274297714</v>
+        <v>0.01321500353515148</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5250480175018311</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.8687580823898315</v>
       </c>
       <c r="W29" t="n">
-        <v>6.398983032340766e-08</v>
+        <v>0.1181366071105003</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5339841842651367</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.3990133702754974</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01353887468576431</v>
+        <v>0.01821712031960487</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5165090560913086</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.5195702910423279</v>
       </c>
       <c r="W31" t="n">
-        <v>0.08306997269392014</v>
+        <v>9.371159649163019e-06</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.522942066192627</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.5183612704277039</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02667973190546036</v>
+        <v>2.098368895531166e-05</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.514754056930542</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8807976841926575</v>
       </c>
       <c r="W33" t="n">
-        <v>0.005232810042798519</v>
+        <v>0.1339879333972931</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5335230827331543</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.4025163352489471</v>
       </c>
       <c r="W34" t="n">
-        <v>0.002408695640042424</v>
+        <v>0.01716276817023754</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.563262939453125</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.4004325866699219</v>
       </c>
       <c r="W35" t="n">
-        <v>0.005310408305376768</v>
+        <v>0.02651372365653515</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5161278247833252</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.4003903269767761</v>
       </c>
       <c r="W36" t="n">
-        <v>0.002738355891779065</v>
+        <v>0.01339516881853342</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5131950378417969</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.8740221858024597</v>
       </c>
       <c r="W37" t="n">
-        <v>0.003969716373831034</v>
+        <v>0.1301962286233902</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5134701728820801</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5153637528419495</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0005072298808954656</v>
+        <v>3.585645117709646e-06</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5138847827911377</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.401102215051651</v>
       </c>
       <c r="W39" t="n">
-        <v>0.003883387893438339</v>
+        <v>0.01271990779787302</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5406398773193359</v>
       </c>
       <c r="V40" t="n">
-        <v>0.802417516708374</v>
+        <v>0.5235283374786377</v>
       </c>
       <c r="W40" t="n">
-        <v>0.06852753460407257</v>
+        <v>0.0002928047906607389</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5494978427886963</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.5207650065422058</v>
       </c>
       <c r="W41" t="n">
-        <v>0.003438188694417477</v>
+        <v>0.0008255759021267295</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3921418190002441</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.5220603346824646</v>
       </c>
       <c r="W42" t="n">
-        <v>0.340455174446106</v>
+        <v>0.01687882095575333</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4241518974304199</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.8856759667396545</v>
       </c>
       <c r="W43" t="n">
-        <v>0.005383342038840055</v>
+        <v>0.213004469871521</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3895859718322754</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.4026173055171967</v>
       </c>
       <c r="W44" t="n">
-        <v>0.005510280840098858</v>
+        <v>0.0001698156556813046</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3915879726409912</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.8731550574302673</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01296396646648645</v>
+        <v>0.2319068610668182</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4122788906097412</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.8735197186470032</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1539517194032669</v>
+        <v>0.2127431035041809</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4104831218719482</v>
       </c>
       <c r="V47" t="n">
-        <v>0.417632520198822</v>
+        <v>0.3998484909534454</v>
       </c>
       <c r="W47" t="n">
-        <v>5.111389691592194e-05</v>
+        <v>0.0001130953751271591</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3929009437561035</v>
       </c>
       <c r="V48" t="n">
-        <v>0.503772497177124</v>
+        <v>0.3990384936332703</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01229250151664019</v>
+        <v>3.766951704164967e-05</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3860170841217041</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.5157379508018494</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0009991400875151157</v>
+        <v>0.01682750321924686</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3869640827178955</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5151970982551575</v>
       </c>
       <c r="W50" t="n">
-        <v>0.07104715704917908</v>
+        <v>0.01644370704889297</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3902289867401123</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.86614590883255</v>
       </c>
       <c r="W51" t="n">
-        <v>0.09148389846086502</v>
+        <v>0.2264969199895859</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3861439228057861</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.4004144370555878</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01367092598229647</v>
+        <v>0.0002036475780187175</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3880219459533691</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8697500228881836</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03771673515439034</v>
+        <v>0.2320619374513626</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3905580043792725</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.8624631762504578</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0007352112443186343</v>
+        <v>0.2226944863796234</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3949768543243408</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4003712236881256</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01208845339715481</v>
+        <v>2.909922113758512e-05</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.389091968536377</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.5307145714759827</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01012945920228958</v>
+        <v>0.0200569611042738</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3855090141296387</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5196564793586731</v>
       </c>
       <c r="W57" t="n">
-        <v>0.001032068976201117</v>
+        <v>0.01799554191529751</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3868820667266846</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8666578531265259</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0002230120007880032</v>
+        <v>0.2301848083734512</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3889081478118896</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.5156586170196533</v>
       </c>
       <c r="W59" t="n">
-        <v>0.001454907353036106</v>
+        <v>0.0160656813532114</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3877649307250977</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.5107782483100891</v>
       </c>
       <c r="W60" t="n">
-        <v>0.00573312770575285</v>
+        <v>0.01513227634131908</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3991618156433105</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.4009513258934021</v>
       </c>
       <c r="W61" t="n">
-        <v>0.003888303646817803</v>
+        <v>3.202346988473437e-06</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8795089721679688</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8662610650062561</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2835322320461273</v>
+        <v>0.000175507040694356</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8758289813995361</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8895372152328491</v>
       </c>
       <c r="W63" t="n">
-        <v>0.005418740212917328</v>
+        <v>0.0001879156770883128</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8767518997192383</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5148962736129761</v>
       </c>
       <c r="W64" t="n">
-        <v>0.08172579109668732</v>
+        <v>0.1309394985437393</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8943839073181152</v>
       </c>
       <c r="V65" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.5210854411125183</v>
       </c>
       <c r="W65" t="n">
-        <v>0.006591156125068665</v>
+        <v>0.1393517404794693</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8620500564575195</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5230444669723511</v>
       </c>
       <c r="W66" t="n">
-        <v>0.234430193901062</v>
+        <v>0.1149247884750366</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8698818683624268</v>
       </c>
       <c r="V67" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5155988931655884</v>
       </c>
       <c r="W67" t="n">
-        <v>0.02912109903991222</v>
+        <v>0.1255164295434952</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8929159641265869</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.40042445063591</v>
       </c>
       <c r="W68" t="n">
-        <v>0.05756247416138649</v>
+        <v>0.2425478845834732</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8658418655395508</v>
       </c>
       <c r="V69" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8721912503242493</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0248897485435009</v>
+        <v>4.031468779430725e-05</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8646130561828613</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4004014432430267</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1397112756967545</v>
+        <v>0.2154924273490906</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8638138771057129</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.4009477198123932</v>
       </c>
       <c r="W71" t="n">
-        <v>0.04388798400759697</v>
+        <v>0.214245080947876</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8765199184417725</v>
       </c>
       <c r="V72" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8708348274230957</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1491113603115082</v>
+        <v>3.232025846955366e-05</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8784339427947998</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8660578727722168</v>
       </c>
       <c r="W73" t="n">
-        <v>0.08777249604463577</v>
+        <v>0.0001531671150587499</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8586740493774414</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.8741785287857056</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1361479312181473</v>
+        <v>0.0002403888793196529</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8646259307861328</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.3992421329021454</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2629395425319672</v>
+        <v>0.2165820747613907</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8654680252075195</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5162954926490784</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1404330134391785</v>
+        <v>0.1219214573502541</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8853671550750732</v>
       </c>
       <c r="V77" t="n">
-        <v>0.802345335483551</v>
+        <v>0.86568683385849</v>
       </c>
       <c r="W77" t="n">
-        <v>0.006892622448503971</v>
+        <v>0.0003873150562867522</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8882138729095459</v>
       </c>
       <c r="V78" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8864798545837402</v>
       </c>
       <c r="W78" t="n">
-        <v>0.00250266632065177</v>
+        <v>3.006819497386459e-06</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9346151351928711</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.4004170596599579</v>
       </c>
       <c r="W79" t="n">
-        <v>0.3165327310562134</v>
+        <v>0.2853675484657288</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8740260601043701</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5201477408409119</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1361078768968582</v>
+        <v>0.1252298653125763</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8725211620330811</v>
       </c>
       <c r="V81" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.4004165232181549</v>
       </c>
       <c r="W81" t="n">
-        <v>0.001477440353482962</v>
+        <v>0.2228827923536301</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5512111186981201</v>
       </c>
       <c r="V82" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.3990230858325958</v>
       </c>
       <c r="W82" t="n">
-        <v>0.07995437830686569</v>
+        <v>0.02316119708120823</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5312089920043945</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.3992486000061035</v>
       </c>
       <c r="W83" t="n">
-        <v>0.004857824649661779</v>
+        <v>0.01741354539990425</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5890309810638428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4026226103305817</v>
       </c>
       <c r="W84" t="n">
-        <v>0.007152385544031858</v>
+        <v>0.03474808111786842</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5270800590515137</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.4024302065372467</v>
       </c>
       <c r="W85" t="n">
-        <v>0.004001294728368521</v>
+        <v>0.01553758606314659</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5208809375762939</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.8672859072685242</v>
       </c>
       <c r="W86" t="n">
-        <v>2.970911009470001e-05</v>
+        <v>0.1199964061379433</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5280430316925049</v>
       </c>
       <c r="V87" t="n">
-        <v>0.490329772233963</v>
+        <v>0.4964173138141632</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001422289991751313</v>
+        <v>0.001000186079181731</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5216350555419922</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8702481985092163</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02926556952297688</v>
+        <v>0.1215311214327812</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.6236779689788818</v>
       </c>
       <c r="V89" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.873347282409668</v>
       </c>
       <c r="W89" t="n">
-        <v>0.04742589220404625</v>
+        <v>0.06233476474881172</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5519890785217285</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.3990335762500763</v>
       </c>
       <c r="W90" t="n">
-        <v>0.006853170227259398</v>
+        <v>0.02339538559317589</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5897831916809082</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.4001792073249817</v>
       </c>
       <c r="W91" t="n">
-        <v>1.050062110152794e-05</v>
+        <v>0.03594966977834702</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.591717004776001</v>
       </c>
       <c r="V92" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5255354046821594</v>
       </c>
       <c r="W92" t="n">
-        <v>0.05662693828344345</v>
+        <v>0.00438000401481986</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.524960994720459</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8765727281570435</v>
       </c>
       <c r="W93" t="n">
-        <v>0.003733534831553698</v>
+        <v>0.1236308142542839</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.7549428939819336</v>
       </c>
       <c r="V94" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.4000521600246429</v>
       </c>
       <c r="W94" t="n">
-        <v>0.002192535204812884</v>
+        <v>0.125947430729866</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5374729633331299</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.4009521305561066</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01439040433615446</v>
+        <v>0.01863793842494488</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5165271759033203</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.3999604284763336</v>
       </c>
       <c r="W96" t="n">
-        <v>0.03108719363808632</v>
+        <v>0.01358780637383461</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5244438648223877</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.5227989554405212</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0304874312132597</v>
+        <v>2.705726956264698e-06</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5158610343933105</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.3998245596885681</v>
       </c>
       <c r="W98" t="n">
-        <v>0.003633961779996753</v>
+        <v>0.01346446387469769</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5310909748077393</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.4003728926181793</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01494473218917847</v>
+        <v>0.01708721742033958</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.517362117767334</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.5188016295433044</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02775835618376732</v>
+        <v>2.072194092761492e-06</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5188789367675781</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.5261269211769104</v>
       </c>
       <c r="W101" t="n">
-        <v>0.08056721091270447</v>
+        <v>5.253327981336042e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4108381271362305</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8700377345085144</v>
       </c>
       <c r="W102" t="n">
-        <v>0.001500832149758935</v>
+        <v>0.2108642756938934</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4073541164398193</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5278236269950867</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06076857447624207</v>
+        <v>0.01451290305703878</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4142739772796631</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.8792288303375244</v>
       </c>
       <c r="W104" t="n">
-        <v>0.02826454304158688</v>
+        <v>0.2161830216646194</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4559321403503418</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.3990416824817657</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01726772636175156</v>
+        <v>0.003236524295061827</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3888630867004395</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5075997710227966</v>
       </c>
       <c r="W106" t="n">
-        <v>0.001452500699087977</v>
+        <v>0.01409840025007725</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.386958122253418</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.5100969672203064</v>
       </c>
       <c r="W107" t="n">
-        <v>0.1722816675901413</v>
+        <v>0.0151631748303771</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3896489143371582</v>
       </c>
       <c r="V108" t="n">
-        <v>0.975210964679718</v>
+        <v>0.4004130065441132</v>
       </c>
       <c r="W108" t="n">
-        <v>0.34288290143013</v>
+        <v>0.0001158656814368442</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3867759704589844</v>
       </c>
       <c r="V109" t="n">
-        <v>0.490833193063736</v>
+        <v>0.8764185309410095</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01082790549844503</v>
+        <v>0.2397498339414597</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388347864151001</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.8729208111763</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0966435968875885</v>
+        <v>0.2348109483718872</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3909280300140381</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5156400203704834</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1706147342920303</v>
+        <v>0.01555308047682047</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4128739833831787</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.3998462557792664</v>
       </c>
       <c r="W112" t="n">
-        <v>2.25985986617161e-05</v>
+        <v>0.0001697216794127598</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3931448459625244</v>
       </c>
       <c r="V113" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.3990442752838135</v>
       </c>
       <c r="W113" t="n">
-        <v>0.3397871851921082</v>
+        <v>3.480326631688513e-05</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909440040588379</v>
       </c>
       <c r="V114" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5172606706619263</v>
       </c>
       <c r="W114" t="n">
-        <v>0.06997151672840118</v>
+        <v>0.01595590077340603</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3906340599060059</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5293065309524536</v>
       </c>
       <c r="W115" t="n">
-        <v>0.00072938681114465</v>
+        <v>0.01923005469143391</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3910419940948486</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5212464332580566</v>
       </c>
       <c r="W116" t="n">
-        <v>0.004909445531666279</v>
+        <v>0.01695319637656212</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3902850151062012</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5242035388946533</v>
       </c>
       <c r="W117" t="n">
-        <v>0.06919568777084351</v>
+        <v>0.01793417148292065</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4208979606628418</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.3990401923656464</v>
       </c>
       <c r="W118" t="n">
-        <v>1.048440299200593e-05</v>
+        <v>0.0004777620488312095</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3909099102020264</v>
       </c>
       <c r="V119" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8740956783294678</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0398896113038063</v>
+        <v>0.2334684878587723</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3922350406646729</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.3992778062820435</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0001840254990383983</v>
+        <v>4.960054866387509e-05</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3926191329956055</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.3990216851234436</v>
       </c>
       <c r="W121" t="n">
-        <v>0.001675892155617476</v>
+        <v>4.099267243873328e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8782310485839844</v>
       </c>
       <c r="V122" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.4009246230125427</v>
       </c>
       <c r="W122" t="n">
-        <v>0.0288959126919508</v>
+        <v>0.2278214246034622</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9876899719238281</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.3998332321643829</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1120964735746384</v>
+        <v>0.3455755710601807</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8795359134674072</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8756116628646851</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1730937510728836</v>
+        <v>1.539974255138077e-05</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8745310306549072</v>
       </c>
       <c r="V125" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5324292182922363</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2351963073015213</v>
+        <v>0.1170336529612541</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8740808963775635</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8893710970878601</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2084249258041382</v>
+        <v>0.0002337902405997738</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9233920574188232</v>
       </c>
       <c r="V127" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.5161037445068359</v>
       </c>
       <c r="W127" t="n">
-        <v>0.0146701643243432</v>
+        <v>0.1658837646245956</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8597650527954102</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.5259574055671692</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2380227595567703</v>
+        <v>0.1114275455474854</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8692409992218018</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8752709031105042</v>
       </c>
       <c r="W129" t="n">
-        <v>0.04695763066411018</v>
+        <v>3.635973916971125e-05</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8799560070037842</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.5194345116615295</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1734478175640106</v>
+        <v>0.129975751042366</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8978049755096436</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.3992514610290527</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2698290050029755</v>
+        <v>0.248555600643158</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8709890842437744</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5226079821586609</v>
       </c>
       <c r="W132" t="n">
-        <v>0.04715993627905846</v>
+        <v>0.1213693916797638</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8788979053497314</v>
       </c>
       <c r="V133" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5651274919509888</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2127470374107361</v>
+        <v>0.0984518751502037</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8618471622467041</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.5159647464752197</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2406639605760574</v>
+        <v>0.1196346431970596</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>1.05617094039917</v>
       </c>
       <c r="V135" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5157626271247864</v>
       </c>
       <c r="W135" t="n">
-        <v>0.0065540736541152</v>
+        <v>0.292041152715683</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8799571990966797</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8726155161857605</v>
       </c>
       <c r="W136" t="n">
-        <v>0.0514591783285141</v>
+        <v>5.390030855778605e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8671789169311523</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5170168280601501</v>
       </c>
       <c r="W137" t="n">
-        <v>0.266707181930542</v>
+        <v>0.1226134896278381</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9123048782348633</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.8668442368507385</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1662483066320419</v>
+        <v>0.00206666998565197</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8689889907836914</v>
       </c>
       <c r="V139" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8815823197364807</v>
       </c>
       <c r="W139" t="n">
-        <v>0.004150210879743099</v>
+        <v>0.000158591938088648</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8708188533782959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8698404431343079</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2053764462471008</v>
+        <v>9.572866019880166e-07</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8649239540100098</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.8730997443199158</v>
       </c>
       <c r="W141" t="n">
-        <v>0.04486476257443428</v>
+        <v>6.684354593744501e-05</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5187549591064453</v>
       </c>
       <c r="V142" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8821341395378113</v>
       </c>
       <c r="W142" t="n">
-        <v>0.07999439537525177</v>
+        <v>0.1320444345474243</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5201430320739746</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5271218419075012</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02196992933750153</v>
+        <v>4.870378688792698e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5215160846710205</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.886016845703125</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0009551471448503435</v>
+        <v>0.1328608095645905</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5182158946990967</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.3990186750888824</v>
       </c>
       <c r="W145" t="n">
-        <v>4.742528108181432e-05</v>
+        <v>0.01420797687023878</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5176069736480713</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8626220226287842</v>
       </c>
       <c r="W146" t="n">
-        <v>0.003152232384309173</v>
+        <v>0.1190353855490685</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.548659086227417</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8923807740211487</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01097560487687588</v>
+        <v>0.1181446015834808</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5717880725860596</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.3998524844646454</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0001151168762589805</v>
+        <v>0.02956184558570385</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5193459987640381</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.4002023637294769</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0001996433275053278</v>
+        <v>0.01419520564377308</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.519136905670166</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.3990127742290497</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0008043543784879148</v>
+        <v>0.01442980673164129</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5176470279693604</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.3990415632724762</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0799718052148819</v>
+        <v>0.01406725589185953</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5162220001220703</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.8664430379867554</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01895935833454132</v>
+        <v>0.1226547732949257</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5164890289306641</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.5101679563522339</v>
       </c>
       <c r="W153" t="n">
-        <v>6.919618317624554e-05</v>
+        <v>3.995595761807635e-05</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5195691585540771</v>
       </c>
       <c r="V154" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5280229449272156</v>
       </c>
       <c r="W154" t="n">
-        <v>0.1008527278900146</v>
+        <v>7.146650750655681e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5217897891998291</v>
       </c>
       <c r="V155" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4003875553607941</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01756853982806206</v>
+        <v>0.01473850198090076</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.532465934753418</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.4004165828227997</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01496067922562361</v>
+        <v>0.0174370314925909</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5208268165588379</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5169196724891663</v>
       </c>
       <c r="W157" t="n">
-        <v>0.02023428305983543</v>
+        <v>1.526577398180962e-05</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.519230842590332</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8733371496200562</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0002161477023037151</v>
+        <v>0.1253912746906281</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5366659164428711</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.5213503837585449</v>
       </c>
       <c r="W159" t="n">
-        <v>0.002096343552693725</v>
+        <v>0.0002345655375393108</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5238261222839355</v>
       </c>
       <c r="V160" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8694639801979065</v>
       </c>
       <c r="W160" t="n">
-        <v>0.2040347456932068</v>
+        <v>0.1194655299186707</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5205490589141846</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.4006946682929993</v>
       </c>
       <c r="W161" t="n">
-        <v>0.02022113464772701</v>
+        <v>0.01436507515609264</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3945679664611816</v>
       </c>
       <c r="V162" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.39984530210495</v>
       </c>
       <c r="W162" t="n">
-        <v>0.09549073129892349</v>
+        <v>2.785027209029067e-05</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.388002872467041</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.4011201560497284</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0008724321378394961</v>
+        <v>0.0001720631262287498</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3870429992675781</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5182822346687317</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01073436066508293</v>
+        <v>0.01722373627126217</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3943579196929932</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.4034220278263092</v>
       </c>
       <c r="W165" t="n">
-        <v>0.009113532491028309</v>
+        <v>8.215805428335443e-05</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3918938636779785</v>
       </c>
       <c r="V166" t="n">
-        <v>0.800457239151001</v>
+        <v>0.5239294171333313</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1669240295886993</v>
+        <v>0.01743338815867901</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3967030048370361</v>
       </c>
       <c r="V167" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.3998348712921143</v>
       </c>
       <c r="W167" t="n">
-        <v>0.002458351431414485</v>
+        <v>9.808587492443621e-06</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4005968570709229</v>
       </c>
       <c r="V168" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.3990372717380524</v>
       </c>
       <c r="W168" t="n">
-        <v>0.002484664553776383</v>
+        <v>2.432306473565404e-06</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3941287994384766</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.8762897849082947</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0005523296422325075</v>
+        <v>0.2324792146682739</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3948209285736084</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8563214540481567</v>
       </c>
       <c r="W170" t="n">
-        <v>0.001939111622050405</v>
+        <v>0.2129827290773392</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923599720001221</v>
       </c>
       <c r="V171" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5153136253356934</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0006397550459951162</v>
+        <v>0.01511760056018829</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3947429656982422</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5210408568382263</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1667713820934296</v>
+        <v>0.01595115661621094</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3942179679870605</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.4004046320915222</v>
       </c>
       <c r="W173" t="n">
-        <v>0.004845626652240753</v>
+        <v>3.82748112315312e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3921840190887451</v>
       </c>
       <c r="V174" t="n">
-        <v>0.708076536655426</v>
+        <v>0.4025540053844452</v>
       </c>
       <c r="W174" t="n">
-        <v>0.09978808462619781</v>
+        <v>0.0001075366162694991</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3919720649719238</v>
       </c>
       <c r="V175" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.4004120528697968</v>
       </c>
       <c r="W175" t="n">
-        <v>0.1684134602546692</v>
+        <v>7.123339310055599e-05</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3938288688659668</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8746663928031921</v>
       </c>
       <c r="W176" t="n">
-        <v>0.009329428896307945</v>
+        <v>0.2312047183513641</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4734749794006348</v>
       </c>
       <c r="V177" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.4000605642795563</v>
       </c>
       <c r="W177" t="n">
-        <v>0.1074436381459236</v>
+        <v>0.005389676429331303</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3942890167236328</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.5228963494300842</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0169551819562912</v>
+        <v>0.01653984561562538</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3940341472625732</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.4004820585250854</v>
       </c>
       <c r="W179" t="n">
-        <v>0.03311913460493088</v>
+        <v>4.157556031714194e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3913469314575195</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.5153716802597046</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0006913020042702556</v>
+        <v>0.01538213808089495</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.3995919227600098</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.8723205924034119</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01568069122731686</v>
+        <v>0.2234724014997482</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9144349098205566</v>
       </c>
       <c r="V182" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5187260508537292</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2590338587760925</v>
+        <v>0.1565854996442795</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8807940483093262</v>
       </c>
       <c r="V183" t="n">
-        <v>0.417663037776947</v>
+        <v>0.8689439296722412</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2144903391599655</v>
+        <v>0.0001404253125656396</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8646979331970215</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.8862872123718262</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1158147752285004</v>
+        <v>0.0004660969716496766</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8704819679260254</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5289599895477295</v>
       </c>
       <c r="W185" t="n">
-        <v>0.02933019213378429</v>
+        <v>0.116637259721756</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8965930938720703</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.8728873133659363</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2294043451547623</v>
+        <v>0.0005619640578515828</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9009768962860107</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.3992520272731781</v>
       </c>
       <c r="W187" t="n">
-        <v>0.06065704673528671</v>
+        <v>0.251727819442749</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8677668571472168</v>
       </c>
       <c r="V188" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5231795907020569</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2673158347606659</v>
+        <v>0.1187403872609138</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8664040565490723</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.4009215533733368</v>
       </c>
       <c r="W189" t="n">
-        <v>0.116007961332798</v>
+        <v>0.216673955321312</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9241790771484375</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.4009491503238678</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2565694153308868</v>
+        <v>0.2737695872783661</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8966829776763916</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.3990049958229065</v>
       </c>
       <c r="W191" t="n">
-        <v>0.04155226051807404</v>
+        <v>0.2476833760738373</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8607211112976074</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.402461439371109</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2600440680980682</v>
+        <v>0.2100019305944443</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8685550689697266</v>
       </c>
       <c r="V193" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5284444093704224</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2681147158145905</v>
+        <v>0.115675263106823</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9298441410064697</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.8761294484138489</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1633591055870056</v>
+        <v>0.002885268302634358</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8719420433044434</v>
       </c>
       <c r="V195" t="n">
-        <v>0.801636278629303</v>
+        <v>0.8784394264221191</v>
       </c>
       <c r="W195" t="n">
-        <v>0.004942900501191616</v>
+        <v>4.221598646836355e-05</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8620579242706299</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8736391067504883</v>
       </c>
       <c r="W196" t="n">
-        <v>0.113680399954319</v>
+        <v>0.0001341237948508933</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8667190074920654</v>
       </c>
       <c r="V197" t="n">
-        <v>0.417630136013031</v>
+        <v>0.4000675976276398</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2016808092594147</v>
+        <v>0.2177635431289673</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9353389739990234</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.8635942935943604</v>
       </c>
       <c r="W198" t="n">
-        <v>0.16855189204216</v>
+        <v>0.005147299263626337</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8705620765686035</v>
       </c>
       <c r="V199" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.3990345895290375</v>
       </c>
       <c r="W199" t="n">
-        <v>0.01103168912231922</v>
+        <v>0.2223381698131561</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8645579814910889</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.515719473361969</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1292131543159485</v>
+        <v>0.1216883063316345</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8873090744018555</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8746662139892578</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2206808924674988</v>
+        <v>0.0001598419185029343</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5730948448181152</v>
       </c>
       <c r="V202" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5249522924423218</v>
       </c>
       <c r="W202" t="n">
-        <v>0.1621184349060059</v>
+        <v>0.002317705424502492</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5187461376190186</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5179948210716248</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0001917557383421808</v>
+        <v>5.644765792567341e-07</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5438840389251709</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8748887181282043</v>
       </c>
       <c r="W204" t="n">
-        <v>0.002581726759672165</v>
+        <v>0.1095640957355499</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5185070037841797</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8730258941650391</v>
       </c>
       <c r="W205" t="n">
-        <v>0.000794866937212646</v>
+        <v>0.1256836503744125</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5194830894470215</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.5662346482276917</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02809960208833218</v>
+        <v>0.002185708144679666</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173511505126953</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.5158270597457886</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02750095911324024</v>
+        <v>2.322852651559515e-06</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5172579288482666</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.4009162783622742</v>
       </c>
       <c r="W208" t="n">
-        <v>0.02771910466253757</v>
+        <v>0.01353537943214178</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.526237964630127</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.5321025848388672</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0004162689438089728</v>
+        <v>3.439377178438008e-05</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5203499794006348</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.3990324437618256</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0002802663366310298</v>
+        <v>0.01471794489771128</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5229020118713379</v>
       </c>
       <c r="V211" t="n">
-        <v>0.35074183344841</v>
+        <v>0.8739439249038696</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02963912673294544</v>
+        <v>0.1232304275035858</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5220921039581299</v>
       </c>
       <c r="V212" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5288659334182739</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0345778614282608</v>
+        <v>4.58847644040361e-05</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5775690078735352</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.4004471004009247</v>
       </c>
       <c r="W213" t="n">
-        <v>0.02562608756124973</v>
+        <v>0.03137217089533806</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5237390995025635</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.5111951231956482</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02113722264766693</v>
+        <v>0.0001573513436596841</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5385229587554932</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8666646480560303</v>
       </c>
       <c r="W215" t="n">
-        <v>0.07081634551286697</v>
+        <v>0.1076769679784775</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.522942066192627</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.8733634352684021</v>
       </c>
       <c r="W216" t="n">
-        <v>3.359312813699944e-06</v>
+        <v>0.1227951347827911</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5198440551757812</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8641635775566101</v>
       </c>
       <c r="W217" t="n">
-        <v>0.02987826056778431</v>
+        <v>0.1185559332370758</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5384011268615723</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5160214304924011</v>
       </c>
       <c r="W218" t="n">
-        <v>4.849478955293307e-06</v>
+        <v>0.0005008507869206369</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5238790512084961</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.876703679561615</v>
       </c>
       <c r="W219" t="n">
-        <v>0.001119525171816349</v>
+        <v>0.1244852170348167</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5223319530487061</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.8899063467979431</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01724190637469292</v>
+        <v>0.135110929608345</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5204188823699951</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.4032398760318756</v>
       </c>
       <c r="W221" t="n">
-        <v>0.003468174254521728</v>
+        <v>0.01373091991990805</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3889620304107666</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.5234252214431763</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01839247718453407</v>
+        <v>0.01808035001158714</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3904690742492676</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8733223080635071</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01798072084784508</v>
+        <v>0.2331472486257553</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.451002836227417</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5288171768188477</v>
       </c>
       <c r="W224" t="n">
-        <v>0.00154848606325686</v>
+        <v>0.006055071484297514</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3919010162353516</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.5312677025794983</v>
       </c>
       <c r="W225" t="n">
-        <v>0.004838733468204737</v>
+        <v>0.01942307315766811</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.394556999206543</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.8738159537315369</v>
       </c>
       <c r="W226" t="n">
-        <v>0.009245380759239197</v>
+        <v>0.2296891510486603</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3949589729309082</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8875883221626282</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0005104028969071805</v>
+        <v>0.2426836788654327</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3946681022644043</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.8706693053245544</v>
       </c>
       <c r="W228" t="n">
-        <v>0.06700639426708221</v>
+        <v>0.2265771478414536</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4027888774871826</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.8822814226150513</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1581154763698578</v>
+        <v>0.2299131006002426</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4266281127929688</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8639315962791443</v>
       </c>
       <c r="W230" t="n">
-        <v>0.002223629970103502</v>
+        <v>0.1912343353033066</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3932058811187744</v>
       </c>
       <c r="V231" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.4004339873790741</v>
       </c>
       <c r="W231" t="n">
-        <v>0.3387083411216736</v>
+        <v>5.224551932769828e-05</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3953051567077637</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.4004344344139099</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0381612703204155</v>
+        <v>2.630948984005954e-05</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3948218822479248</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.4000450968742371</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1929692476987839</v>
+        <v>2.728197068790905e-05</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3960738182067871</v>
       </c>
       <c r="V234" t="n">
-        <v>0.653571605682373</v>
+        <v>0.4004453718662262</v>
       </c>
       <c r="W234" t="n">
-        <v>0.06630510836839676</v>
+        <v>1.911048093461432e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4033010005950928</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5185438990592957</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0009715193882584572</v>
+        <v>0.01328092534095049</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3966259956359863</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.4010899066925049</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06613807380199432</v>
+        <v>1.992650140891783e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4052741527557373</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.521334707736969</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01419367920607328</v>
+        <v>0.01347005274146795</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3880190849304199</v>
       </c>
       <c r="V238" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.4003908038139343</v>
       </c>
       <c r="W238" t="n">
-        <v>0.3454224169254303</v>
+        <v>0.00015305943088606</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3911049365997314</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5216849446296692</v>
       </c>
       <c r="W239" t="n">
-        <v>5.32113881490659e-06</v>
+        <v>0.01705113798379898</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.38773512840271</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.3999645113945007</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01367982011288404</v>
+        <v>0.0001495578035246581</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4026589393615723</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5107887983322144</v>
       </c>
       <c r="W241" t="n">
-        <v>0.08795684576034546</v>
+        <v>0.01169206667691469</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9672250747680664</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.4037917256355286</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1533506214618683</v>
+        <v>0.3174571394920349</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8975329399108887</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.4004499018192291</v>
       </c>
       <c r="W243" t="n">
-        <v>0.05966298282146454</v>
+        <v>0.2470915466547012</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8821520805358887</v>
       </c>
       <c r="V244" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8779705166816711</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1278136372566223</v>
+        <v>1.74854758370202e-05</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8822150230407715</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.4003989100456238</v>
       </c>
       <c r="W245" t="n">
-        <v>0.08488763868808746</v>
+        <v>0.2321467697620392</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9294102191925049</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.4000567197799683</v>
       </c>
       <c r="W246" t="n">
-        <v>0.261983722448349</v>
+        <v>0.2802151143550873</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8806769847869873</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.4000411331653595</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1420278400182724</v>
+        <v>0.2310108244419098</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8689508438110352</v>
       </c>
       <c r="V248" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5281773209571838</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2464956343173981</v>
+        <v>0.1161265969276428</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8754711151123047</v>
       </c>
       <c r="V249" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8672836422920227</v>
       </c>
       <c r="W249" t="n">
-        <v>0.001384822768159211</v>
+        <v>6.703471444780007e-05</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9226012229919434</v>
       </c>
       <c r="V250" t="n">
-        <v>0.652911365032196</v>
+        <v>0.8922710418701172</v>
       </c>
       <c r="W250" t="n">
-        <v>0.07273261994123459</v>
+        <v>0.000919919868465513</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8905770778656006</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.3990432024002075</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2906101047992706</v>
+        <v>0.2416055500507355</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8801388740539551</v>
       </c>
       <c r="V252" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5158360004425049</v>
       </c>
       <c r="W252" t="n">
-        <v>0.002154238987714052</v>
+        <v>0.1327165812253952</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8717520236968994</v>
       </c>
       <c r="V253" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.528624951839447</v>
       </c>
       <c r="W253" t="n">
-        <v>0.01078356150537729</v>
+        <v>0.1177361905574799</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9338409900665283</v>
       </c>
       <c r="V254" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.4010934829711914</v>
       </c>
       <c r="W254" t="n">
-        <v>0.001741869375109673</v>
+        <v>0.2838199138641357</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8768959045410156</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5233526825904846</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1662193387746811</v>
+        <v>0.124992810189724</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8689939975738525</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8656140565872192</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1641220301389694</v>
+        <v>1.142400105891284e-05</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8710601329803467</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.5103643536567688</v>
       </c>
       <c r="W257" t="n">
-        <v>0.00498332129791379</v>
+        <v>0.1301014423370361</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.924069881439209</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8685448169708252</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2979274094104767</v>
+        <v>0.003083032788708806</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8751871585845947</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.4026323854923248</v>
       </c>
       <c r="W259" t="n">
-        <v>0.07866024971008301</v>
+        <v>0.2233080118894577</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8642239570617676</v>
       </c>
       <c r="V260" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5275002717971802</v>
       </c>
       <c r="W260" t="n">
-        <v>0.01241419836878777</v>
+        <v>0.1133828386664391</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8767940998077393</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8776867389678955</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2108039557933807</v>
+        <v>7.968046702444553e-07</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5711698532104492</v>
       </c>
       <c r="V262" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5114390254020691</v>
       </c>
       <c r="W262" t="n">
-        <v>2.680586658243556e-05</v>
+        <v>0.003567771753296256</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5552577972412109</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5044209957122803</v>
       </c>
       <c r="W263" t="n">
-        <v>0.04181941598653793</v>
+        <v>0.002584380330517888</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5221548080444336</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.4000545740127563</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02694731578230858</v>
+        <v>0.01490846741944551</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.525860071182251</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.4011025726795197</v>
       </c>
       <c r="W265" t="n">
-        <v>0.003222260624170303</v>
+        <v>0.01556443329900503</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5292031764984131</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4009444415569305</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01552910916507244</v>
+        <v>0.0164503026753664</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.600391149520874</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.3998499810695648</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01494808401912451</v>
+        <v>0.04021675884723663</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5250649452209473</v>
       </c>
       <c r="V268" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.8974892497062683</v>
       </c>
       <c r="W268" t="n">
-        <v>0.2034139335155487</v>
+        <v>0.138699859380722</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5265078544616699</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8813570141792297</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01184666901826859</v>
+        <v>0.1259179264307022</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.52264404296875</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8871555924415588</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0003380145353730768</v>
+        <v>0.1328686624765396</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5447931289672852</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8806033134460449</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0004082573286723346</v>
+        <v>0.1127684786915779</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5284049510955811</v>
       </c>
       <c r="V272" t="n">
-        <v>0.505433976650238</v>
+        <v>0.4032995104789734</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0005276656593196094</v>
+        <v>0.01565137133002281</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5259659290313721</v>
       </c>
       <c r="V273" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.511372983455658</v>
       </c>
       <c r="W273" t="n">
-        <v>0.03154966607689857</v>
+        <v>0.0002129540662281215</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5542728900909424</v>
       </c>
       <c r="V274" t="n">
-        <v>0.490907609462738</v>
+        <v>0.5207563638687134</v>
       </c>
       <c r="W274" t="n">
-        <v>0.004015158861875534</v>
+        <v>0.001123357564210892</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5230691432952881</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.3990388810634613</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0296939592808485</v>
+        <v>0.01538350619375706</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5225927829742432</v>
       </c>
       <c r="V276" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.399843841791153</v>
       </c>
       <c r="W276" t="n">
-        <v>0.07855731248855591</v>
+        <v>0.01506730262190104</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5266740322113037</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8613118529319763</v>
       </c>
       <c r="W277" t="n">
-        <v>2.042877440544544e-07</v>
+        <v>0.1119824722409248</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5616528987884521</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.3992933332920074</v>
       </c>
       <c r="W278" t="n">
-        <v>0.003207329893484712</v>
+        <v>0.02636062912642956</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5280048847198486</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8834137916564941</v>
       </c>
       <c r="W279" t="n">
-        <v>0.004472996573895216</v>
+        <v>0.1263154894113541</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5216410160064697</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5239471793174744</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01760051771998405</v>
+        <v>5.31838941242313e-06</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5326311588287354</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5157800912857056</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02775966748595238</v>
+        <v>0.0002839584776666015</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4524781703948975</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.4026625752449036</v>
       </c>
       <c r="W282" t="n">
-        <v>0.001445022993721068</v>
+        <v>0.002481593517586589</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4744329452514648</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.516171932220459</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1063181906938553</v>
+        <v>0.001742143067531288</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4434061050415039</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.3992308080196381</v>
       </c>
       <c r="W284" t="n">
-        <v>0.006652775220572948</v>
+        <v>0.001951456884853542</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4011349678039551</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5165897607803345</v>
       </c>
       <c r="W285" t="n">
-        <v>0.03066223300993443</v>
+        <v>0.01332980953156948</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3992571830749512</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8864621520042419</v>
       </c>
       <c r="W286" t="n">
-        <v>0.03134956955909729</v>
+        <v>0.2373686879873276</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4034531116485596</v>
       </c>
       <c r="V287" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5457218289375305</v>
       </c>
       <c r="W287" t="n">
-        <v>0.3268733620643616</v>
+        <v>0.02024038881063461</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4011249542236328</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.8711543679237366</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0008424914558418095</v>
+        <v>0.2209276556968689</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4383440017700195</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.8669149279594421</v>
       </c>
       <c r="W289" t="n">
-        <v>0.04551110044121742</v>
+        <v>0.1836730390787125</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3972949981689453</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.8863889575004578</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0006392712239176035</v>
+        <v>0.2392129004001617</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.405797004699707</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5209565758705139</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0600072480738163</v>
+        <v>0.01326172705739737</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4050390720367432</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.889573872089386</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01457531098276377</v>
+        <v>0.2347739785909653</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3970668315887451</v>
       </c>
       <c r="V293" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.8590445518493652</v>
       </c>
       <c r="W293" t="n">
-        <v>0.002145318081602454</v>
+        <v>0.213423416018486</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3950989246368408</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.3990268111228943</v>
       </c>
       <c r="W294" t="n">
-        <v>0.06680036336183548</v>
+        <v>1.542829159006942e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3956139087677002</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.4025943875312805</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01198924332857132</v>
+        <v>4.87270845042076e-05</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3970389366149902</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.5293849110603333</v>
       </c>
       <c r="W296" t="n">
-        <v>0.03203392401337624</v>
+        <v>0.01751545630395412</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4007880687713623</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.8652152419090271</v>
       </c>
       <c r="W297" t="n">
-        <v>0.008100440725684166</v>
+        <v>0.2156925946474075</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3968091011047363</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.5164453387260437</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0004343424225226045</v>
+        <v>0.01431282889097929</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4076671600341797</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.8783085942268372</v>
       </c>
       <c r="W299" t="n">
-        <v>0.00311635690741241</v>
+        <v>0.2215033620595932</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3982610702514648</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.5096071362495422</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1939349919557571</v>
+        <v>0.01239794678986073</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982551097869873</v>
       </c>
       <c r="V301" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5662990808486938</v>
       </c>
       <c r="W301" t="n">
-        <v>0.161450207233429</v>
+        <v>0.02823877707123756</v>
       </c>
     </row>
     <row r="302" spans="1:23">
